--- a/Report-Latex/Testing-data/Vol-matrix.xlsx
+++ b/Report-Latex/Testing-data/Vol-matrix.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongchao/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongchao/github/MTH9845_Final_Project/Report-Latex/Testing-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13740" yWindow="2640" windowWidth="13440" windowHeight="12560" tabRatio="500"/>
+    <workbookView xWindow="12160" yWindow="2180" windowWidth="13440" windowHeight="12560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>EUR/USD</t>
   </si>
   <si>
     <t>GBP/USD</t>
-  </si>
-  <si>
-    <t>USD/JPY</t>
   </si>
   <si>
     <t>Mid Vol</t>
@@ -380,46 +377,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -460,26 +457,6 @@
       </c>
       <c r="F5">
         <v>0.63500000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>8.254999999999999</v>
-      </c>
-      <c r="C6">
-        <v>-0.41249999999999998</v>
-      </c>
-      <c r="D6">
-        <v>0.2225</v>
-      </c>
-      <c r="E6">
-        <v>-0.77499999999999991</v>
-      </c>
-      <c r="F6">
-        <v>0.61499999999999999</v>
       </c>
     </row>
   </sheetData>
